--- a/컬럼정의서.xlsx
+++ b/컬럼정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jomin\PycharmProjects\pythonProject\Sodescar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351DFD17-D727-4222-9B47-CA25BF7F944E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E713C86-2E15-44B5-BE23-9C3C50A9A5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8916" yWindow="564" windowWidth="17280" windowHeight="8964" xr2:uid="{B1E3BF16-E720-42C0-8C04-37A335019B0E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B1E3BF16-E720-42C0-8C04-37A335019B0E}"/>
   </bookViews>
   <sheets>
     <sheet name="socar_usage_processed.csv" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>member_age</t>
   </si>
@@ -225,10 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>차종 그룹 (SUV, non_SUV)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>trip 로그상 방문한 지역들의 인구 1000명당 관광지 수 평균</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,6 +298,18 @@
   </si>
   <si>
     <t>상점, 위와동일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compact(경차, 소형차) / sedan(세단) / compact_SUV (소형 SUV) / SUV(소형제외 SUV) / EV(전기차) / van (승합차)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용시점의 평일 비율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -309,7 +317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +345,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -380,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -391,6 +415,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -710,13 +740,13 @@
   <dimension ref="B2:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="21.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.19921875" customWidth="1"/>
+    <col min="3" max="3" width="99.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
@@ -832,11 +862,11 @@
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>52</v>
+      <c r="C16" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
@@ -844,7 +874,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
@@ -852,7 +882,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -860,7 +890,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -872,10 +902,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877166D2-89E5-4077-A75E-58025AC56B42}">
-  <dimension ref="B2:C23"/>
+  <dimension ref="B2:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -897,7 +927,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
@@ -929,135 +959,143 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>58</v>
+      <c r="B8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>71</v>
+      <c r="C24" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/컬럼정의서.xlsx
+++ b/컬럼정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jomin\PycharmProjects\pythonProject\Sodescar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jomin\PycharmProjects\pythonProject\Sodascar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E713C86-2E15-44B5-BE23-9C3C50A9A5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D431C6-63A6-46B6-B5A2-38D196F00AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B1E3BF16-E720-42C0-8C04-37A335019B0E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{B1E3BF16-E720-42C0-8C04-37A335019B0E}"/>
   </bookViews>
   <sheets>
     <sheet name="socar_usage_processed.csv" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>member_age</t>
   </si>
@@ -237,10 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>멤보 고유 식별자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가입기간 (가입~ 마지막이용)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,6 +306,38 @@
   </si>
   <si>
     <t>이용시점의 평일 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zone_gini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>region_gini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버가 방문한 지역의 다양성 (gini index)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버가 예약한 존의 다양성 (gini index)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval_med</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용주기의 중앙값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usage_time_med</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버별 이용시간의 중앙값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -317,7 +345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,14 +362,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,11 +374,12 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
@@ -367,12 +388,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -411,17 +438,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67E4260-8214-4264-8E71-9E723B88A44B}">
   <dimension ref="B2:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -750,15 +777,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -766,7 +793,7 @@
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -774,7 +801,7 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -782,7 +809,7 @@
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -790,7 +817,7 @@
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -798,7 +825,7 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -806,7 +833,7 @@
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -814,7 +841,7 @@
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -822,7 +849,7 @@
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -830,7 +857,7 @@
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -838,7 +865,7 @@
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -846,7 +873,7 @@
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -854,7 +881,7 @@
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -862,34 +889,34 @@
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>71</v>
+      <c r="C16" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -902,10 +929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877166D2-89E5-4077-A75E-58025AC56B42}">
-  <dimension ref="B2:C24"/>
+  <dimension ref="B2:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -915,23 +942,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -939,7 +966,7 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -947,7 +974,7 @@
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -955,147 +982,179 @@
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B14" s="3" t="s">
-        <v>11</v>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B24" s="3" t="s">
+      <c r="C27" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>70</v>
+      <c r="C28" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/컬럼정의서.xlsx
+++ b/컬럼정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jomin\PycharmProjects\pythonProject\Sodascar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D431C6-63A6-46B6-B5A2-38D196F00AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BF4A93-A004-4BCA-93DA-33727D1C65E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{B1E3BF16-E720-42C0-8C04-37A335019B0E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
   <si>
     <t>member_age</t>
   </si>
@@ -156,23 +156,6 @@
     <t>car_type</t>
   </si>
   <si>
-    <t>attraction</t>
-  </si>
-  <si>
-    <t>restaurant</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>컬럼명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>멤버 고유 식별자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,62 +164,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대여종료시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여시작시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멤버 나이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멤버 성별</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멤버 가입일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멤버 총 주행거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부름 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>차 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용기간 (가입~ 해당이용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>trip 로그의 수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>trip 로그상 방문한 지역들의 인구 1000명당 관광지 수 평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trip 로그상 방문한 지역들의 인구 1000명당 음식점 수 평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trip 로그상 방문한 지역들의 인구 1000명당 상점 수 평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가입기간 (가입~ 마지막이용)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,54 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>멤버별 이용시간의 평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멤버별 이용시간의 표준편차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1회 이용당 부름 서비스 이용확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1회 이용당 trip로그 수 평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1회 이용당 triop로그 수 표준편차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용한 최빈 차종분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용한 차종 다양성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 이용별 방문지의 관광지수의 평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 이용별 방문지의 관광지수의 표준편차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식당, 위와동일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점, 위와동일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>compact(경차, 소형차) / sedan(세단) / compact_SUV (소형 SUV) / SUV(소형제외 SUV) / EV(전기차) / van (승합차)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wd_ratio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,14 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>멤버가 방문한 지역의 다양성 (gini index)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멤버가 예약한 존의 다양성 (gini index)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>interval_med</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,7 +216,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>멤버별 이용시간의 중앙값</t>
+    <t>attraction_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restaurant_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용 종료시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용 시작시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member 나이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member 성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member 가입일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member 총 주행거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용한 차량 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입기간 (day)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용시간 (hour)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차종그룹 compact / sedan / compact_SUV / SUV / EV / van</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문지역의 인구천명 대비 관광지 수 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문지역의 인구천명 대비 음식점 수 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문지역의 인구천명 대비 쇼핑점 수 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zone_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여존의 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용중 방문한 지역의 로그 (시군구)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식점, 위와동일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼핑점, 위와동일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member 고유 식별자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memeber 나이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member가 예약한 존의 다양성 (gini index)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member가 방문한 지역의 다양성 (gini index)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member별 이용한 최빈 차종그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 이용정보의 이용시간 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 이용정보의 이용시간 중앙값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 이용정보의 이용시간  표준편차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부름 서비스 이용확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 이용정보의 trip로그 수 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 이용정보의 trip로그 수 표준편차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 이용정보의 관광지 점수 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 이용정보의 관광지 점수 표준편차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member의 이용 차종분류의 다양성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -345,7 +372,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +409,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -431,7 +466,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -449,6 +484,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,24 +802,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67E4260-8214-4264-8E71-9E723B88A44B}">
-  <dimension ref="B2:C19"/>
+  <dimension ref="B2:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="21.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="99.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
@@ -789,7 +827,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
@@ -797,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
@@ -805,7 +843,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
@@ -813,7 +851,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
@@ -821,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
@@ -829,7 +867,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
@@ -837,7 +875,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
@@ -845,7 +883,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
@@ -853,7 +891,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
@@ -861,63 +899,79 @@
         <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>54</v>
+      <c r="C21" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -931,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877166D2-89E5-4077-A75E-58025AC56B42}">
   <dimension ref="B2:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -943,10 +997,10 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
@@ -954,7 +1008,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
@@ -962,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
@@ -970,7 +1024,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
@@ -978,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
@@ -986,31 +1040,31 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
@@ -1018,7 +1072,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
@@ -1026,15 +1080,15 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
@@ -1042,7 +1096,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
@@ -1050,15 +1104,15 @@
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
@@ -1066,7 +1120,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
@@ -1074,7 +1128,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
@@ -1082,7 +1136,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -1090,7 +1144,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
@@ -1098,7 +1152,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
@@ -1106,7 +1160,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -1114,7 +1168,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
@@ -1122,7 +1176,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -1130,7 +1184,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
@@ -1138,7 +1192,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
@@ -1146,7 +1200,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.4">
@@ -1154,11 +1208,12 @@
         <v>21</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>